--- a/app/config/tables/triagem/forms/initroundsQuick/initroundsQuick.xlsx
+++ b/app/config/tables/triagem/forms/initroundsQuick/initroundsQuick.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDA3EA9-AAD2-48BC-92A9-832699967E9F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5540C74-A007-46B6-99F8-A792E82C3D76}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="849">
   <si>
     <t>setting_name</t>
   </si>
@@ -952,9 +952,6 @@
     <t>anos</t>
   </si>
   <si>
-    <t>select_one_inline</t>
-  </si>
-  <si>
     <t>bcgmaealt</t>
   </si>
   <si>
@@ -1984,9 +1981,6 @@
     <t>If in study area</t>
   </si>
   <si>
-    <t>Where do you live?</t>
-  </si>
-  <si>
     <t>Select bairro</t>
   </si>
   <si>
@@ -2053,9 +2047,6 @@
     <t>If don't know</t>
   </si>
   <si>
-    <t>Describe where you live</t>
-  </si>
-  <si>
     <t>data('tabz99')</t>
   </si>
   <si>
@@ -2092,9 +2083,6 @@
     <t>If not i study area</t>
   </si>
   <si>
-    <t>Do people from the project come by your village?</t>
-  </si>
-  <si>
     <t>selected(data('tabq'),'1')</t>
   </si>
   <si>
@@ -2561,6 +2549,36 @@
   </si>
   <si>
     <t>bloodNA</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('cam1na') != null </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('sec1'),'NA') || data('cam1na') != null </t>
+  </si>
+  <si>
+    <t>What have been done to find the child?</t>
+  </si>
+  <si>
+    <t>initrounds</t>
+  </si>
+  <si>
+    <t>Description of where the child lives</t>
+  </si>
+  <si>
+    <t>Do people from the project come by the village?</t>
+  </si>
+  <si>
+    <t>maeq</t>
+  </si>
+  <si>
+    <t>exactdob2</t>
   </si>
 </sst>
 </file>
@@ -3107,7 +3125,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3116,7 +3134,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3173,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3197,10 +3215,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -3246,8 +3264,8 @@
   <dimension ref="A1:R1091"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C356" sqref="C356"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G54" sqref="G54:H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3309,7 +3327,7 @@
         <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>144</v>
@@ -3334,10 +3352,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="G3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -3350,13 +3368,13 @@
     </row>
     <row r="4" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -3380,13 +3398,13 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3396,7 +3414,7 @@
     </row>
     <row r="9" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -3408,16 +3426,16 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G10" t="s">
+        <v>605</v>
+      </c>
+      <c r="H10" t="s">
         <v>606</v>
       </c>
-      <c r="H10" t="s">
-        <v>607</v>
-      </c>
       <c r="P10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3429,13 +3447,13 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G11" t="s">
+        <v>607</v>
+      </c>
+      <c r="H11" t="s">
         <v>608</v>
-      </c>
-      <c r="H11" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3444,13 +3462,13 @@
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G12" t="s">
+        <v>404</v>
+      </c>
+      <c r="H12" t="s">
         <v>405</v>
-      </c>
-      <c r="H12" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3459,7 +3477,7 @@
         <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F13" t="s">
         <v>51</v>
@@ -3468,25 +3486,25 @@
     <row r="14" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C14" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="Q14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="D15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G15" t="s">
+        <v>610</v>
+      </c>
+      <c r="H15" t="s">
         <v>611</v>
-      </c>
-      <c r="H15" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3498,13 +3516,13 @@
         <v>305</v>
       </c>
       <c r="G16" t="s">
+        <v>612</v>
+      </c>
+      <c r="H16" t="s">
         <v>613</v>
       </c>
-      <c r="H16" t="s">
-        <v>614</v>
-      </c>
       <c r="P16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3513,25 +3531,25 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G17" t="s">
+        <v>614</v>
+      </c>
+      <c r="H17" t="s">
         <v>615</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>616</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>617</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>618</v>
       </c>
-      <c r="K17" t="s">
-        <v>619</v>
-      </c>
       <c r="P17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3540,16 +3558,16 @@
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="G18" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="H18" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="P18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3558,22 +3576,22 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G19" t="s">
+        <v>619</v>
+      </c>
+      <c r="H19" t="s">
         <v>620</v>
       </c>
-      <c r="H19" t="s">
-        <v>621</v>
-      </c>
       <c r="P19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3600,10 +3618,10 @@
         <v>248</v>
       </c>
       <c r="G23" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q23" t="s">
         <v>622</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3615,13 +3633,13 @@
     <row r="25" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" t="s">
+        <v>623</v>
+      </c>
+      <c r="C25" t="s">
         <v>624</v>
       </c>
-      <c r="C25" t="s">
+      <c r="Q25" t="s">
         <v>625</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3633,28 +3651,28 @@
     <row r="27" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C27" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q27" t="s">
         <v>627</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="D28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F28" t="s">
         <v>294</v>
       </c>
       <c r="L28" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q28" t="s">
         <v>629</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3666,16 +3684,16 @@
         <v>294</v>
       </c>
       <c r="G29" t="s">
+        <v>630</v>
+      </c>
+      <c r="H29" t="s">
         <v>631</v>
-      </c>
-      <c r="H29" t="s">
-        <v>632</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3687,58 +3705,58 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="D31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L31" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q31" t="s">
         <v>634</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C33" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="Q33" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="D34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F34" t="s">
         <v>295</v>
       </c>
       <c r="L34" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q34" t="s">
         <v>637</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3750,10 +3768,10 @@
         <v>295</v>
       </c>
       <c r="G35" t="s">
+        <v>630</v>
+      </c>
+      <c r="H35" t="s">
         <v>631</v>
-      </c>
-      <c r="H35" t="s">
-        <v>632</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -3768,52 +3786,52 @@
         <v>89</v>
       </c>
       <c r="P36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="D37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L37" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C39" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Q39" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="D40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F40" t="s">
         <v>296</v>
       </c>
       <c r="L40" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Q40" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3825,10 +3843,10 @@
         <v>296</v>
       </c>
       <c r="G41" t="s">
+        <v>630</v>
+      </c>
+      <c r="H41" t="s">
         <v>631</v>
-      </c>
-      <c r="H41" t="s">
-        <v>632</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -3843,25 +3861,25 @@
         <v>90</v>
       </c>
       <c r="P42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="D43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L43" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3872,7 +3890,7 @@
     </row>
     <row r="46" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
@@ -3884,16 +3902,16 @@
         <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G47" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H47" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P47" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3902,7 +3920,7 @@
         <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F48" t="s">
         <v>285</v>
@@ -3911,22 +3929,22 @@
     <row r="49" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C49" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q49" t="s">
         <v>644</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="D50" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L50">
         <v>99999</v>
@@ -3935,7 +3953,7 @@
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -3959,31 +3977,31 @@
         <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G54" t="s">
+        <v>645</v>
+      </c>
+      <c r="H54" t="s">
         <v>646</v>
-      </c>
-      <c r="H54" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C55" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q55" t="s">
         <v>648</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="D56" t="s">
-        <v>306</v>
+        <v>36</v>
       </c>
       <c r="E56" t="s">
         <v>235</v>
@@ -3992,22 +4010,25 @@
         <v>235</v>
       </c>
       <c r="G56" t="s">
-        <v>650</v>
+        <v>686</v>
+      </c>
+      <c r="H56" t="s">
+        <v>687</v>
       </c>
       <c r="Q56" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C57" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="Q57" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -4022,43 +4043,43 @@
         <v>242</v>
       </c>
       <c r="G58" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H58" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="P58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="D59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L59" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C61" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="Q61" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -4073,43 +4094,43 @@
         <v>243</v>
       </c>
       <c r="G62" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H62" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="P62" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="D63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F63" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L63" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C65" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="Q65" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -4124,43 +4145,43 @@
         <v>244</v>
       </c>
       <c r="G66" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H66" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="P66" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="D67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F67" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L67" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C69" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="Q69" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -4175,43 +4196,43 @@
         <v>245</v>
       </c>
       <c r="G70" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H70" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="P70" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="D71" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F71" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L71" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C73" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Q73" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -4226,43 +4247,43 @@
         <v>246</v>
       </c>
       <c r="G74" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H74" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="P74" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="D75" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F75" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L75" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C77" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="Q77" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -4277,43 +4298,43 @@
         <v>247</v>
       </c>
       <c r="G78" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H78" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="P78" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="D79" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F79" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L79" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C81" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="Q81" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -4325,40 +4346,40 @@
         <v>250</v>
       </c>
       <c r="G82" t="s">
-        <v>673</v>
+        <v>845</v>
       </c>
       <c r="P82" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="D83" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F83" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L83" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C85" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="Q85" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -4370,13 +4391,13 @@
         <v>219</v>
       </c>
       <c r="G86" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="H86" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="P86" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -4394,19 +4415,19 @@
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C88" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Q88" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="D89" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F89" t="s">
         <v>219</v>
@@ -4418,19 +4439,19 @@
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C91" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="Q91" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
@@ -4439,46 +4460,46 @@
         <v>8</v>
       </c>
       <c r="F92" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G92" t="s">
-        <v>673</v>
+        <v>845</v>
       </c>
       <c r="P92" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q92" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C96" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="Q96" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
@@ -4490,22 +4511,22 @@
         <v>29</v>
       </c>
       <c r="F97" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G97" t="s">
-        <v>686</v>
+        <v>846</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C98" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="Q98" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
@@ -4520,7 +4541,7 @@
         <v>253</v>
       </c>
       <c r="G99" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
@@ -4532,13 +4553,13 @@
         <v>235</v>
       </c>
       <c r="G100" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H100" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="P100" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
@@ -4547,25 +4568,25 @@
         <v>8</v>
       </c>
       <c r="F101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G101" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="P101" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
@@ -4586,16 +4607,16 @@
         <v>8</v>
       </c>
       <c r="F106" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G106" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H106" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="P106" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
@@ -4604,16 +4625,16 @@
         <v>20</v>
       </c>
       <c r="F107" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G107" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H107" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="P107" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
@@ -4640,22 +4661,22 @@
         <v>292</v>
       </c>
       <c r="G110" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="H110" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C111" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="Q111" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
@@ -4670,70 +4691,70 @@
         <v>293</v>
       </c>
       <c r="G112" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H112" t="s">
         <v>135</v>
       </c>
       <c r="P112" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C114" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="Q114" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="D115" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F115" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L115" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q116" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="D117" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F117" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L117" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
@@ -4745,25 +4766,25 @@
         <v>52</v>
       </c>
       <c r="F119" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G119" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="H119" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C120" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Q120" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
@@ -4772,22 +4793,22 @@
         <v>20</v>
       </c>
       <c r="F121" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G121" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="H121" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="P121" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
@@ -4799,40 +4820,40 @@
         <v>52</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G123" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="H123" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C124" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="D125" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F125" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="L125" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
@@ -4853,16 +4874,16 @@
         <v>8</v>
       </c>
       <c r="F129" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G129" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H129" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="P129" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
@@ -4877,10 +4898,10 @@
         <v>54</v>
       </c>
       <c r="G130" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H130" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
@@ -4904,22 +4925,22 @@
         <v>289</v>
       </c>
       <c r="G133" t="s">
+        <v>406</v>
+      </c>
+      <c r="H133" t="s">
         <v>407</v>
       </c>
-      <c r="H133" t="s">
+      <c r="I133" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="I133" s="3" t="s">
+      <c r="J133" t="s">
         <v>409</v>
       </c>
-      <c r="J133" t="s">
+      <c r="K133" t="s">
         <v>410</v>
       </c>
-      <c r="K133" t="s">
+      <c r="P133" t="s">
         <v>411</v>
-      </c>
-      <c r="P133" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
@@ -4938,56 +4959,56 @@
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C135" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I135" s="3"/>
       <c r="Q135" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="D136" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F136" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I136" s="3"/>
       <c r="L136" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I137" s="3"/>
       <c r="Q137" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="D138" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F138" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I138" s="3"/>
       <c r="L138" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I139" s="3"/>
     </row>
@@ -5000,22 +5021,22 @@
         <v>290</v>
       </c>
       <c r="G140" t="s">
+        <v>417</v>
+      </c>
+      <c r="H140" t="s">
         <v>418</v>
       </c>
-      <c r="H140" t="s">
+      <c r="I140" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="I140" s="3" t="s">
-        <v>420</v>
-      </c>
       <c r="J140" t="s">
+        <v>409</v>
+      </c>
+      <c r="K140" t="s">
         <v>410</v>
       </c>
-      <c r="K140" t="s">
+      <c r="P140" t="s">
         <v>411</v>
-      </c>
-      <c r="P140" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
@@ -5034,69 +5055,69 @@
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C142" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I142" s="3"/>
       <c r="Q142" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="D143" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F143" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I143" s="3"/>
       <c r="L143" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I144" s="3"/>
       <c r="Q144" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="D145" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F145" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I145" s="3"/>
       <c r="L145" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I146" s="3"/>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C147" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="Q147" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.25">
@@ -5108,22 +5129,22 @@
         <v>291</v>
       </c>
       <c r="G148" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H148" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="J148" t="s">
+        <v>409</v>
+      </c>
+      <c r="K148" t="s">
         <v>410</v>
       </c>
-      <c r="K148" t="s">
+      <c r="P148" t="s">
         <v>411</v>
-      </c>
-      <c r="P148" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
@@ -5142,63 +5163,63 @@
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C150" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="I150" s="3"/>
       <c r="Q150" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="D151" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F151" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I151" s="3"/>
       <c r="L151" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I152" s="3"/>
       <c r="Q152" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="D153" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F153" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I153" s="3"/>
       <c r="L153" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I154" s="3"/>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I155" s="3"/>
     </row>
@@ -5217,37 +5238,37 @@
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="D158" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G158" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="H158" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="P158" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="D159" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G159" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="H159" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="P159" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
@@ -5259,13 +5280,13 @@
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C161" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="Q161" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
@@ -5288,13 +5309,13 @@
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="D163" t="s">
+        <v>423</v>
+      </c>
+      <c r="G163" t="s">
         <v>424</v>
       </c>
-      <c r="G163" t="s">
+      <c r="H163" t="s">
         <v>425</v>
-      </c>
-      <c r="H163" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
@@ -5306,13 +5327,13 @@
         <v>35</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G164" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H164" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -5326,10 +5347,10 @@
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C165" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -5344,22 +5365,22 @@
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
       <c r="Q165" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="166" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="D166" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G166" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H166" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -5369,22 +5390,22 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
       <c r="P166" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="167" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="D167" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G167" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H167" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -5394,13 +5415,13 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
       <c r="P167" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="168" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -5423,13 +5444,13 @@
         <v>37</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G169" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H169" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -5443,10 +5464,10 @@
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C170" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -5463,10 +5484,10 @@
     <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="D171" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F171" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
@@ -5474,7 +5495,7 @@
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
@@ -5484,7 +5505,7 @@
     <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -5518,10 +5539,10 @@
     <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C174" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -5535,7 +5556,7 @@
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
       <c r="Q174" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.25">
@@ -5558,14 +5579,14 @@
     <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="D176" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F176" s="1"/>
       <c r="G176" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H176" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
@@ -5585,13 +5606,13 @@
         <v>29</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G177" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H177" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -5605,10 +5626,10 @@
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="B178" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C178" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -5623,22 +5644,22 @@
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
       <c r="Q178" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="D179" t="s">
+        <v>307</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="G179" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H179" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
@@ -5648,22 +5669,22 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
       <c r="P179" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="D180" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
@@ -5673,13 +5694,13 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
       <c r="P180" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -5702,13 +5723,13 @@
         <v>37</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G182" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H182" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
@@ -5722,10 +5743,10 @@
     <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C183" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -5742,10 +5763,10 @@
     <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="D184" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F184" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -5753,7 +5774,7 @@
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
@@ -5763,7 +5784,7 @@
     <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
@@ -5785,7 +5806,7 @@
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B187" t="s">
         <v>18</v>
@@ -5800,34 +5821,34 @@
         <v>30</v>
       </c>
       <c r="F188" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G188" t="s">
+        <v>442</v>
+      </c>
+      <c r="H188" t="s">
         <v>443</v>
-      </c>
-      <c r="H188" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C189" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="Q189" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="D190" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F190" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L190">
         <v>6</v>
@@ -5836,10 +5857,10 @@
     <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="D191" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F191" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
@@ -5847,7 +5868,7 @@
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
@@ -5857,19 +5878,19 @@
     <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C193" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="Q193" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.25">
@@ -5881,19 +5902,19 @@
         <v>29</v>
       </c>
       <c r="F194" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G194" t="s">
+        <v>445</v>
+      </c>
+      <c r="H194" t="s">
         <v>446</v>
-      </c>
-      <c r="H194" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.25">
@@ -5905,13 +5926,13 @@
     <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C197" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="Q197" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.25">
@@ -5923,13 +5944,13 @@
     <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="D199" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F199" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L199" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.25">
@@ -5941,19 +5962,19 @@
         <v>269</v>
       </c>
       <c r="G200" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H200" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="H200" s="1" t="s">
+      <c r="I200" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="I200" s="1" t="s">
+      <c r="J200" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="J200" s="1" t="s">
+      <c r="K200" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="K200" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
@@ -5988,10 +6009,10 @@
     <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
       <c r="B202" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C202" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
@@ -6005,16 +6026,16 @@
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
       <c r="Q202" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="10"/>
       <c r="D203" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
@@ -6022,7 +6043,7 @@
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
@@ -6033,7 +6054,7 @@
     <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="B204" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
@@ -6047,16 +6068,16 @@
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
       <c r="Q204" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="D205" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -6064,7 +6085,7 @@
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
@@ -6075,7 +6096,7 @@
     <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="10"/>
       <c r="B206" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
@@ -6099,19 +6120,19 @@
         <v>270</v>
       </c>
       <c r="G207" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H207" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="H207" s="1" t="s">
+      <c r="I207" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="I207" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="J207" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K207" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="K207" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
@@ -6135,19 +6156,19 @@
     <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="10"/>
       <c r="B209" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C209" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q209" t="s">
         <v>461</v>
-      </c>
-      <c r="Q209" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="10"/>
       <c r="D210" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>270</v>
@@ -6157,7 +6178,7 @@
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
@@ -6168,7 +6189,7 @@
     <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="10"/>
       <c r="B211" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
@@ -6185,10 +6206,10 @@
     <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="10"/>
       <c r="B212" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C212" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
@@ -6201,23 +6222,23 @@
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
       <c r="Q212" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="D213" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
@@ -6228,7 +6249,7 @@
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
@@ -6241,23 +6262,23 @@
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
       <c r="Q214" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="10"/>
       <c r="D215" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
       <c r="L215" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
@@ -6267,7 +6288,7 @@
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="10"/>
       <c r="B216" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
@@ -6315,19 +6336,19 @@
         <v>271</v>
       </c>
       <c r="G219" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H219" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="H219" s="1" t="s">
+      <c r="I219" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="I219" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="J219" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K219" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="K219" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
@@ -6362,10 +6383,10 @@
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="10"/>
       <c r="B221" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C221" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -6379,16 +6400,16 @@
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
       <c r="Q221" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="10"/>
       <c r="D222" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
@@ -6396,7 +6417,7 @@
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
@@ -6407,7 +6428,7 @@
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="10"/>
       <c r="B223" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
@@ -6421,16 +6442,16 @@
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
       <c r="Q223" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="10"/>
       <c r="D224" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
@@ -6438,7 +6459,7 @@
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
       <c r="L224" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
@@ -6449,7 +6470,7 @@
     <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="10"/>
       <c r="B225" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
@@ -6473,19 +6494,19 @@
         <v>272</v>
       </c>
       <c r="G226" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H226" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="H226" s="1" t="s">
+      <c r="I226" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="I226" s="1" t="s">
+      <c r="J226" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="J226" s="1" t="s">
+      <c r="K226" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="K226" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
@@ -6509,19 +6530,19 @@
     <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="10"/>
       <c r="B228" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C228" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q228" t="s">
         <v>477</v>
-      </c>
-      <c r="Q228" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="10"/>
       <c r="D229" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>272</v>
@@ -6531,7 +6552,7 @@
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
       <c r="L229" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
@@ -6542,7 +6563,7 @@
     <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
       <c r="B230" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -6559,10 +6580,10 @@
     <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="10"/>
       <c r="B231" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C231" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -6575,23 +6596,23 @@
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
       <c r="Q231" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="10"/>
       <c r="D232" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
       <c r="L232" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
@@ -6602,7 +6623,7 @@
     <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="10"/>
       <c r="B233" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
@@ -6615,23 +6636,23 @@
       <c r="O233" s="1"/>
       <c r="P233" s="1"/>
       <c r="Q233" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="10"/>
       <c r="D234" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
       <c r="L234" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
@@ -6642,7 +6663,7 @@
     <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="10"/>
       <c r="B235" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
@@ -6666,19 +6687,19 @@
         <v>273</v>
       </c>
       <c r="G236" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H236" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="H236" s="1" t="s">
+      <c r="I236" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="I236" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="J236" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K236" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="K236" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
@@ -6701,19 +6722,19 @@
     <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="10"/>
       <c r="B238" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C238" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q238" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="10"/>
       <c r="D239" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>273</v>
@@ -6723,7 +6744,7 @@
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
       <c r="L239" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
@@ -6734,7 +6755,7 @@
     <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="10"/>
       <c r="B240" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
@@ -6751,10 +6772,10 @@
     <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="10"/>
       <c r="B241" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C241" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
@@ -6767,23 +6788,23 @@
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
       <c r="Q241" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="10"/>
       <c r="D242" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
       <c r="L242" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
@@ -6794,7 +6815,7 @@
     <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" s="10"/>
       <c r="B243" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
@@ -6807,23 +6828,23 @@
       <c r="O243" s="1"/>
       <c r="P243" s="1"/>
       <c r="Q243" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="10"/>
       <c r="D244" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
       <c r="L244" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
@@ -6834,7 +6855,7 @@
     <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="10"/>
       <c r="B245" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
@@ -6858,19 +6879,19 @@
         <v>274</v>
       </c>
       <c r="G246" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H246" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H246" s="1" t="s">
+      <c r="I246" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="I246" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="J246" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K246" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="K246" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="L246" s="1"/>
       <c r="M246" s="1"/>
@@ -6893,19 +6914,19 @@
     <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="10"/>
       <c r="B248" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C248" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q248" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="10"/>
       <c r="D249" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>274</v>
@@ -6915,7 +6936,7 @@
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
       <c r="L249" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
@@ -6926,7 +6947,7 @@
     <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="10"/>
       <c r="B250" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
@@ -6943,10 +6964,10 @@
     <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" s="10"/>
       <c r="B251" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C251" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
@@ -6959,23 +6980,23 @@
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
       <c r="Q251" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" s="10"/>
       <c r="D252" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
       <c r="L252" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
@@ -6986,7 +7007,7 @@
     <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="10"/>
       <c r="B253" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
@@ -6999,23 +7020,23 @@
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
       <c r="Q253" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" s="10"/>
       <c r="D254" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
       <c r="L254" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
@@ -7026,7 +7047,7 @@
     <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="10"/>
       <c r="B255" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
@@ -7062,19 +7083,19 @@
         <v>275</v>
       </c>
       <c r="G258" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H258" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="H258" s="1" t="s">
+      <c r="I258" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="I258" s="1" t="s">
+      <c r="J258" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="J258" s="1" t="s">
+      <c r="K258" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="K258" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="L258" s="1"/>
       <c r="M258" s="1"/>
@@ -7109,10 +7130,10 @@
     <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" s="10"/>
       <c r="B260" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C260" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
@@ -7126,16 +7147,16 @@
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
       <c r="Q260" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" s="10"/>
       <c r="D261" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
@@ -7143,7 +7164,7 @@
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
       <c r="L261" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
@@ -7154,7 +7175,7 @@
     <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="10"/>
       <c r="B262" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
@@ -7168,16 +7189,16 @@
       <c r="O262" s="1"/>
       <c r="P262" s="1"/>
       <c r="Q262" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" s="10"/>
       <c r="D263" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
@@ -7185,7 +7206,7 @@
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
       <c r="L263" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
@@ -7196,7 +7217,7 @@
     <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" s="10"/>
       <c r="B264" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
@@ -7220,19 +7241,19 @@
         <v>276</v>
       </c>
       <c r="G265" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="H265" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="H265" s="1" t="s">
+      <c r="I265" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="I265" s="1" t="s">
+      <c r="J265" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="J265" s="1" t="s">
+      <c r="K265" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="K265" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="L265" s="1"/>
       <c r="M265" s="1"/>
@@ -7256,19 +7277,19 @@
     <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" s="10"/>
       <c r="B267" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C267" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q267" t="s">
         <v>509</v>
-      </c>
-      <c r="Q267" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" s="10"/>
       <c r="D268" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>276</v>
@@ -7278,7 +7299,7 @@
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
       <c r="L268" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
@@ -7289,7 +7310,7 @@
     <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" s="10"/>
       <c r="B269" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
@@ -7306,10 +7327,10 @@
     <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" s="10"/>
       <c r="B270" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C270" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
@@ -7322,23 +7343,23 @@
       <c r="O270" s="1"/>
       <c r="P270" s="1"/>
       <c r="Q270" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" s="10"/>
       <c r="D271" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
       <c r="L271" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
@@ -7349,7 +7370,7 @@
     <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" s="10"/>
       <c r="B272" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
@@ -7362,23 +7383,23 @@
       <c r="O272" s="1"/>
       <c r="P272" s="1"/>
       <c r="Q272" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" s="10"/>
       <c r="D273" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
       <c r="L273" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
@@ -7389,7 +7410,7 @@
     <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" s="10"/>
       <c r="B274" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
@@ -7413,19 +7434,19 @@
         <v>277</v>
       </c>
       <c r="G275" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H275" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H275" s="1" t="s">
+      <c r="I275" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="I275" s="1" t="s">
+      <c r="J275" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="J275" s="1" t="s">
+      <c r="K275" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="K275" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="L275" s="1"/>
       <c r="M275" s="1"/>
@@ -7448,19 +7469,19 @@
     <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" s="10"/>
       <c r="B277" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C277" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q277" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" s="10"/>
       <c r="D278" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>277</v>
@@ -7470,7 +7491,7 @@
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
       <c r="L278" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
@@ -7481,7 +7502,7 @@
     <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" s="10"/>
       <c r="B279" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
@@ -7498,10 +7519,10 @@
     <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" s="10"/>
       <c r="B280" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C280" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
@@ -7514,23 +7535,23 @@
       <c r="O280" s="1"/>
       <c r="P280" s="1"/>
       <c r="Q280" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" s="10"/>
       <c r="D281" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
       <c r="L281" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
@@ -7541,7 +7562,7 @@
     <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" s="10"/>
       <c r="B282" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
@@ -7554,23 +7575,23 @@
       <c r="O282" s="1"/>
       <c r="P282" s="1"/>
       <c r="Q282" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" s="10"/>
       <c r="D283" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
       <c r="L283" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
@@ -7581,7 +7602,7 @@
     <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" s="10"/>
       <c r="B284" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
@@ -7605,19 +7626,19 @@
         <v>278</v>
       </c>
       <c r="G285" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H285" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="H285" s="1" t="s">
+      <c r="I285" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="I285" s="1" t="s">
+      <c r="J285" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="J285" s="1" t="s">
+      <c r="K285" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="K285" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="L285" s="1"/>
       <c r="M285" s="1"/>
@@ -7640,19 +7661,19 @@
     <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" s="10"/>
       <c r="B287" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C287" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q287" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" s="10"/>
       <c r="D288" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>278</v>
@@ -7662,7 +7683,7 @@
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
       <c r="L288" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
@@ -7673,7 +7694,7 @@
     <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" s="10"/>
       <c r="B289" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
@@ -7690,10 +7711,10 @@
     <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" s="10"/>
       <c r="B290" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C290" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
@@ -7706,23 +7727,23 @@
       <c r="O290" s="1"/>
       <c r="P290" s="1"/>
       <c r="Q290" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" s="10"/>
       <c r="D291" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
       <c r="L291" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
@@ -7733,7 +7754,7 @@
     <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" s="10"/>
       <c r="B292" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
@@ -7746,23 +7767,23 @@
       <c r="O292" s="1"/>
       <c r="P292" s="1"/>
       <c r="Q292" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" s="10"/>
       <c r="D293" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
       <c r="L293" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
@@ -7773,7 +7794,7 @@
     <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" s="10"/>
       <c r="B294" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
@@ -7809,19 +7830,19 @@
         <v>279</v>
       </c>
       <c r="G297" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H297" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="H297" s="1" t="s">
+      <c r="I297" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="I297" s="1" t="s">
+      <c r="J297" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="J297" s="1" t="s">
+      <c r="K297" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="K297" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="L297" s="1"/>
       <c r="M297" s="1"/>
@@ -7856,10 +7877,10 @@
     <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" s="10"/>
       <c r="B299" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C299" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
@@ -7873,16 +7894,16 @@
       <c r="O299" s="1"/>
       <c r="P299" s="1"/>
       <c r="Q299" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" s="10"/>
       <c r="D300" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
@@ -7890,7 +7911,7 @@
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
       <c r="L300" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
@@ -7901,7 +7922,7 @@
     <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301" s="10"/>
       <c r="B301" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
@@ -7915,16 +7936,16 @@
       <c r="O301" s="1"/>
       <c r="P301" s="1"/>
       <c r="Q301" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302" s="10"/>
       <c r="D302" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
@@ -7932,7 +7953,7 @@
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
       <c r="L302" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
@@ -7943,7 +7964,7 @@
     <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303" s="10"/>
       <c r="B303" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
@@ -7967,19 +7988,19 @@
         <v>280</v>
       </c>
       <c r="G304" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H304" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="H304" s="1" t="s">
+      <c r="I304" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="I304" s="1" t="s">
+      <c r="J304" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="J304" s="1" t="s">
+      <c r="K304" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="K304" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="L304" s="1"/>
       <c r="M304" s="1"/>
@@ -8003,19 +8024,19 @@
     <row r="306" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A306" s="10"/>
       <c r="B306" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C306" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q306" t="s">
         <v>545</v>
-      </c>
-      <c r="Q306" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="307" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A307" s="10"/>
       <c r="D307" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>280</v>
@@ -8025,7 +8046,7 @@
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
       <c r="L307" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
@@ -8036,7 +8057,7 @@
     <row r="308" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A308" s="10"/>
       <c r="B308" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
@@ -8053,10 +8074,10 @@
     <row r="309" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A309" s="10"/>
       <c r="B309" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C309" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
@@ -8069,23 +8090,23 @@
       <c r="O309" s="1"/>
       <c r="P309" s="1"/>
       <c r="Q309" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="310" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A310" s="10"/>
       <c r="D310" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
       <c r="L310" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
@@ -8096,7 +8117,7 @@
     <row r="311" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A311" s="10"/>
       <c r="B311" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
@@ -8109,23 +8130,23 @@
       <c r="O311" s="1"/>
       <c r="P311" s="1"/>
       <c r="Q311" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="312" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A312" s="10"/>
       <c r="D312" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
       <c r="L312" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
@@ -8136,7 +8157,7 @@
     <row r="313" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A313" s="10"/>
       <c r="B313" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
@@ -8160,19 +8181,19 @@
         <v>281</v>
       </c>
       <c r="G314" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H314" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="H314" s="1" t="s">
+      <c r="I314" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I314" s="1" t="s">
+      <c r="J314" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="J314" s="1" t="s">
+      <c r="K314" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="K314" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="L314" s="1"/>
       <c r="M314" s="1"/>
@@ -8195,19 +8216,19 @@
     <row r="316" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A316" s="10"/>
       <c r="B316" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C316" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q316" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="317" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A317" s="10"/>
       <c r="D317" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>281</v>
@@ -8217,7 +8238,7 @@
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
       <c r="L317" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
@@ -8228,7 +8249,7 @@
     <row r="318" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A318" s="10"/>
       <c r="B318" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
@@ -8245,10 +8266,10 @@
     <row r="319" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A319" s="10"/>
       <c r="B319" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C319" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
@@ -8261,23 +8282,23 @@
       <c r="O319" s="1"/>
       <c r="P319" s="1"/>
       <c r="Q319" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="320" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A320" s="10"/>
       <c r="D320" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
       <c r="L320" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
@@ -8288,7 +8309,7 @@
     <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321" s="10"/>
       <c r="B321" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
@@ -8301,23 +8322,23 @@
       <c r="O321" s="1"/>
       <c r="P321" s="1"/>
       <c r="Q321" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322" s="10"/>
       <c r="D322" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
       <c r="L322" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
@@ -8328,7 +8349,7 @@
     <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323" s="10"/>
       <c r="B323" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
@@ -8352,19 +8373,19 @@
         <v>282</v>
       </c>
       <c r="G324" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="H324" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="H324" s="1" t="s">
+      <c r="I324" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="I324" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="J324" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K324" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="K324" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="L324" s="1"/>
       <c r="M324" s="1"/>
@@ -8387,19 +8408,19 @@
     <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326" s="10"/>
       <c r="B326" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C326" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Q326" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327" s="10"/>
       <c r="D327" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>282</v>
@@ -8409,7 +8430,7 @@
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
       <c r="L327" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
@@ -8420,7 +8441,7 @@
     <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328" s="10"/>
       <c r="B328" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
@@ -8437,10 +8458,10 @@
     <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329" s="10"/>
       <c r="B329" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C329" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
@@ -8453,23 +8474,23 @@
       <c r="O329" s="1"/>
       <c r="P329" s="1"/>
       <c r="Q329" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330" s="10"/>
       <c r="D330" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
       <c r="L330" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M330" s="1"/>
       <c r="N330" s="1"/>
@@ -8480,7 +8501,7 @@
     <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331" s="10"/>
       <c r="B331" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
@@ -8493,23 +8514,23 @@
       <c r="O331" s="1"/>
       <c r="P331" s="1"/>
       <c r="Q331" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332" s="10"/>
       <c r="D332" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
       <c r="L332" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
@@ -8520,7 +8541,7 @@
     <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333" s="10"/>
       <c r="B333" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
@@ -8556,19 +8577,19 @@
         <v>283</v>
       </c>
       <c r="G336" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H336" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="H336" s="1" t="s">
+      <c r="I336" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="I336" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="J336" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K336" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="K336" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="L336" s="1"/>
       <c r="M336" s="1"/>
@@ -8603,10 +8624,10 @@
     <row r="338" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A338" s="10"/>
       <c r="B338" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C338" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
@@ -8620,16 +8641,16 @@
       <c r="O338" s="1"/>
       <c r="P338" s="1"/>
       <c r="Q338" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339" s="10"/>
       <c r="D339" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
@@ -8637,7 +8658,7 @@
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
       <c r="L339" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
@@ -8648,7 +8669,7 @@
     <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340" s="10"/>
       <c r="B340" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
@@ -8662,16 +8683,16 @@
       <c r="O340" s="1"/>
       <c r="P340" s="1"/>
       <c r="Q340" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="341" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A341" s="10"/>
       <c r="D341" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
@@ -8679,7 +8700,7 @@
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
       <c r="L341" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
@@ -8690,7 +8711,7 @@
     <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342" s="10"/>
       <c r="B342" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
@@ -8714,19 +8735,19 @@
         <v>284</v>
       </c>
       <c r="G343" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="H343" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="H343" s="1" t="s">
+      <c r="I343" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="I343" s="1" t="s">
-        <v>574</v>
-      </c>
       <c r="J343" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K343" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="K343" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -8749,19 +8770,19 @@
     <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345" s="10"/>
       <c r="B345" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C345" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q345" t="s">
         <v>575</v>
-      </c>
-      <c r="Q345" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346" s="10"/>
       <c r="D346" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>282</v>
@@ -8771,7 +8792,7 @@
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
       <c r="L346" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
@@ -8782,7 +8803,7 @@
     <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347" s="10"/>
       <c r="B347" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
@@ -8799,10 +8820,10 @@
     <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348" s="10"/>
       <c r="B348" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C348" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
@@ -8815,23 +8836,23 @@
       <c r="O348" s="1"/>
       <c r="P348" s="1"/>
       <c r="Q348" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349" s="10"/>
       <c r="D349" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
       <c r="L349" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
@@ -8842,7 +8863,7 @@
     <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350" s="10"/>
       <c r="B350" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
@@ -8855,23 +8876,23 @@
       <c r="O350" s="1"/>
       <c r="P350" s="1"/>
       <c r="Q350" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351" s="10"/>
       <c r="D351" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
       <c r="L351" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M351" s="1"/>
       <c r="N351" s="1"/>
@@ -8882,7 +8903,7 @@
     <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352" s="10"/>
       <c r="B352" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
@@ -8906,7 +8927,7 @@
     <row r="354" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A354" s="10"/>
       <c r="B354" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
@@ -8923,13 +8944,13 @@
     <row r="355" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A355" s="10"/>
       <c r="B355" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C355" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="Q355" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="356" spans="1:17" x14ac:dyDescent="0.25">
@@ -8943,13 +8964,13 @@
     <row r="357" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A357" s="10"/>
       <c r="D357" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F357" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L357" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="358" spans="1:17" x14ac:dyDescent="0.25">
@@ -8961,7 +8982,7 @@
         <v>264</v>
       </c>
       <c r="F358" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G358" t="s">
         <v>190</v>
@@ -8976,10 +8997,10 @@
         <v>264</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G359" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="360" spans="1:17" x14ac:dyDescent="0.25">
@@ -9003,10 +9024,10 @@
         <v>264</v>
       </c>
       <c r="F362" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G362" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="363" spans="1:17" x14ac:dyDescent="0.25">
@@ -9018,10 +9039,10 @@
         <v>264</v>
       </c>
       <c r="F363" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G363" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="364" spans="1:17" x14ac:dyDescent="0.25">
@@ -9033,10 +9054,10 @@
         <v>264</v>
       </c>
       <c r="F364" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G364" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="365" spans="1:17" x14ac:dyDescent="0.25">
@@ -9060,10 +9081,10 @@
         <v>264</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G367" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="368" spans="1:17" x14ac:dyDescent="0.25">
@@ -9075,10 +9096,10 @@
         <v>264</v>
       </c>
       <c r="F368" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G368" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
@@ -9090,10 +9111,10 @@
         <v>264</v>
       </c>
       <c r="F369" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G369" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -9117,10 +9138,10 @@
         <v>264</v>
       </c>
       <c r="F372" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G372" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -9132,10 +9153,10 @@
         <v>264</v>
       </c>
       <c r="F373" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G373" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
@@ -9147,10 +9168,10 @@
         <v>264</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G374" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
@@ -9174,10 +9195,10 @@
         <v>264</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G377" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
@@ -9189,10 +9210,10 @@
         <v>264</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G378" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
@@ -9216,10 +9237,10 @@
         <v>264</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G381" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
@@ -9231,10 +9252,10 @@
         <v>264</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
@@ -9246,10 +9267,10 @@
         <v>264</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G383" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
@@ -9261,7 +9282,7 @@
     <row r="385" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A385" s="10"/>
       <c r="B385" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="386" spans="1:16" x14ac:dyDescent="0.25">
@@ -9292,13 +9313,13 @@
         <v>52</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H387" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="I387" s="1"/>
       <c r="J387" s="1"/>
@@ -9318,13 +9339,13 @@
         <v>39</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H388" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
@@ -9338,10 +9359,10 @@
     <row r="389" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A389" s="10"/>
       <c r="D389" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
@@ -9359,10 +9380,10 @@
     <row r="390" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A390" s="10"/>
       <c r="B390" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C390" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
@@ -9379,10 +9400,10 @@
     <row r="391" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A391" s="10"/>
       <c r="D391" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
@@ -9390,7 +9411,7 @@
       <c r="J391" s="1"/>
       <c r="K391" s="1"/>
       <c r="L391" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="M391" s="1"/>
       <c r="N391" s="1"/>
@@ -9400,7 +9421,7 @@
     <row r="392" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A392" s="10"/>
       <c r="B392" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
@@ -9422,7 +9443,7 @@
     </row>
     <row r="394" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="12" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B394" t="s">
         <v>18</v>
@@ -9434,16 +9455,16 @@
         <v>36</v>
       </c>
       <c r="E395" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F395" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G395" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="H395" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="396" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9452,28 +9473,28 @@
         <v>146</v>
       </c>
       <c r="E396" t="s">
+        <v>372</v>
+      </c>
+      <c r="F396" t="s">
         <v>373</v>
-      </c>
-      <c r="F396" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="397" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="12"/>
       <c r="B397" t="s">
+        <v>374</v>
+      </c>
+      <c r="C397" t="s">
         <v>375</v>
-      </c>
-      <c r="C397" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="398" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="12"/>
       <c r="D398" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F398" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L398">
         <v>9999</v>
@@ -9482,7 +9503,7 @@
     <row r="399" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="12"/>
       <c r="B399" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="400" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9491,158 +9512,264 @@
         <v>36</v>
       </c>
       <c r="E400" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F400" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G400" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="H400" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="401" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="12"/>
       <c r="D401" t="s">
         <v>146</v>
       </c>
       <c r="E401" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F401" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="402" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="12"/>
       <c r="B402" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C402" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="403" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="12"/>
       <c r="D403" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F403" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L403">
         <v>9999</v>
       </c>
     </row>
-    <row r="404" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="12"/>
       <c r="B404" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="405" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="12"/>
       <c r="D405" t="s">
         <v>36</v>
       </c>
       <c r="E405" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F405" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="G405" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="H405" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="406" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="12"/>
       <c r="D406" t="s">
         <v>146</v>
       </c>
       <c r="E406" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F406" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="407" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="12"/>
       <c r="B407" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C407" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="408" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="12"/>
       <c r="D408" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F408" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="L408">
         <v>9999</v>
       </c>
     </row>
-    <row r="409" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="12"/>
       <c r="B409" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A410" s="12"/>
       <c r="B410" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="411" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I421" s="3"/>
-    </row>
-    <row r="422" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A411" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="B411" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="26"/>
+      <c r="D412" t="s">
+        <v>36</v>
+      </c>
+      <c r="E412" t="s">
+        <v>399</v>
+      </c>
+      <c r="F412" t="s">
+        <v>791</v>
+      </c>
+      <c r="G412" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="26"/>
+      <c r="D413" t="s">
+        <v>20</v>
+      </c>
+      <c r="F413" t="s">
+        <v>790</v>
+      </c>
+      <c r="G413" t="s">
+        <v>840</v>
+      </c>
+      <c r="P413" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="26"/>
+      <c r="D414" t="s">
+        <v>146</v>
+      </c>
+      <c r="E414" t="s">
+        <v>400</v>
+      </c>
+      <c r="F414" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="26"/>
+      <c r="B415" t="s">
+        <v>374</v>
+      </c>
+      <c r="C415" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="26"/>
+      <c r="D416" t="s">
+        <v>376</v>
+      </c>
+      <c r="F416" t="s">
+        <v>790</v>
+      </c>
+      <c r="L416">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="26"/>
+      <c r="B417" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="26"/>
+      <c r="B418" t="s">
+        <v>374</v>
+      </c>
+      <c r="C418" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="26"/>
+      <c r="D419" t="s">
+        <v>8</v>
+      </c>
+      <c r="F419" t="s">
+        <v>795</v>
+      </c>
+      <c r="G419" t="s">
+        <v>843</v>
+      </c>
+      <c r="P419" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="26"/>
+      <c r="B420" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A421" s="26"/>
+      <c r="B421" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I422" s="3"/>
     </row>
-    <row r="423" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I423" s="3"/>
     </row>
-    <row r="424" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I424" s="3"/>
     </row>
-    <row r="425" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I425" s="3"/>
     </row>
-    <row r="426" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I426" s="3"/>
     </row>
-    <row r="427" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I427" s="3"/>
     </row>
-    <row r="428" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I428" s="3"/>
     </row>
-    <row r="429" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I429" s="3"/>
     </row>
-    <row r="430" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I430" s="3"/>
     </row>
-    <row r="431" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I431" s="3"/>
     </row>
-    <row r="432" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I432" s="3"/>
     </row>
     <row r="433" spans="5:17" x14ac:dyDescent="0.25">
@@ -16666,7 +16793,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B105" s="5" t="str">
         <f>"99999"</f>
@@ -17725,241 +17852,241 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B171" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D171" s="7"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B172" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D172" s="7"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B173" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D173" s="7"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B174" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D174" s="5"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B175" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D175" s="5"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B176" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D176" s="5"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B177" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B178" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B179" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B180" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B181" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D181" s="5"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B182" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B183" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D183" s="5"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B184" s="7" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D184" s="7"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B185" s="5" t="str">
         <f>"55"</f>
         <v>55</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B186" s="5" t="str">
         <f>"51"</f>
         <v>51</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B187" s="5" t="str">
         <f>"53"</f>
         <v>53</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B188" s="5" t="str">
         <f>"54"</f>
         <v>54</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>301</v>
@@ -17971,307 +18098,307 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B204" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D204" s="7"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B205" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D205" s="5"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B206" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D206" s="5"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B207" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D207" s="5"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B208" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D208" s="5"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B209" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D209" s="7"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B210" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D210" s="7"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B211" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D211" s="7"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B212" s="7" t="str">
         <f>"99"</f>
@@ -18286,119 +18413,119 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>62</v>
@@ -18412,32 +18539,32 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="26" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>232</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D222" s="5"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B223" s="7" t="str">
         <f>"88888"</f>
         <v>88888</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D223" s="7"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B224" s="7" t="str">
         <f>"99999"</f>
@@ -18548,10 +18675,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A115" sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A121" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18592,7 +18719,7 @@
         <v>235</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>306</v>
+        <v>36</v>
       </c>
       <c r="C3" s="10" t="b">
         <v>0</v>
@@ -18600,10 +18727,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>308</v>
       </c>
       <c r="C4" s="10" t="b">
         <v>0</v>
@@ -18611,10 +18738,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C5" s="10" t="b">
         <v>0</v>
@@ -18622,7 +18749,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>8</v>
@@ -18633,7 +18760,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>8</v>
@@ -18644,7 +18771,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>8</v>
@@ -18666,7 +18793,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>20</v>
@@ -18677,7 +18804,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>8</v>
@@ -18688,7 +18815,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>9</v>
@@ -18699,7 +18826,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>9</v>
@@ -18710,7 +18837,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>9</v>
@@ -18721,7 +18848,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>36</v>
@@ -18732,7 +18859,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>36</v>
@@ -18743,10 +18870,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C17" s="10" t="b">
         <v>0</v>
@@ -18754,7 +18881,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>36</v>
@@ -18765,10 +18892,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C19" s="10" t="b">
         <v>0</v>
@@ -18776,7 +18903,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>20</v>
@@ -18787,7 +18914,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>8</v>
@@ -18798,7 +18925,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>8</v>
@@ -18809,7 +18936,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>8</v>
@@ -18820,7 +18947,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>20</v>
@@ -18831,7 +18958,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -18842,7 +18969,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>9</v>
@@ -18853,7 +18980,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>20</v>
@@ -18864,7 +18991,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>8</v>
@@ -18875,7 +19002,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>20</v>
@@ -18897,7 +19024,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>9</v>
@@ -18908,7 +19035,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>20</v>
@@ -18919,7 +19046,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>8</v>
@@ -18930,7 +19057,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>8</v>
@@ -18941,7 +19068,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>8</v>
@@ -18952,10 +19079,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C36" s="10" t="b">
         <v>0</v>
@@ -18963,7 +19090,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -18974,7 +19101,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>9</v>
@@ -18996,7 +19123,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>8</v>
@@ -19007,7 +19134,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>21</v>
@@ -19018,7 +19145,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -19029,7 +19156,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>20</v>
@@ -19040,7 +19167,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>9</v>
@@ -19051,7 +19178,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>8</v>
@@ -19062,7 +19189,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>9</v>
@@ -19073,7 +19200,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>8</v>
@@ -19084,7 +19211,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>20</v>
@@ -19095,7 +19222,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>20</v>
@@ -19106,7 +19233,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>20</v>
@@ -19117,10 +19244,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C51" s="10" t="b">
         <v>0</v>
@@ -19128,7 +19255,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>9</v>
@@ -19139,7 +19266,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -19150,7 +19277,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>8</v>
@@ -19161,7 +19288,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>8</v>
@@ -19172,7 +19299,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -19183,7 +19310,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -19194,7 +19321,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -19205,7 +19332,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -19216,7 +19343,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -19227,7 +19354,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>21</v>
@@ -19238,7 +19365,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -19249,7 +19376,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -19260,7 +19387,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -19271,7 +19398,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -19282,7 +19409,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -19293,7 +19420,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -19931,7 +20058,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>9</v>
@@ -19942,7 +20069,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>8</v>
@@ -19953,7 +20080,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>8</v>
@@ -19964,7 +20091,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>8</v>
@@ -19975,7 +20102,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B129" s="16" t="s">
         <v>146</v>
@@ -19986,7 +20113,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B130" s="16" t="s">
         <v>146</v>
@@ -19997,7 +20124,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B131" s="16" t="s">
         <v>146</v>
@@ -20008,7 +20135,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="23" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B132" s="23" t="s">
         <v>20</v>
@@ -20019,7 +20146,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="23" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B133" s="23" t="s">
         <v>8</v>
@@ -20030,7 +20157,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="23" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B134" s="23" t="s">
         <v>8</v>
@@ -20041,7 +20168,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="23" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B135" s="23" t="s">
         <v>9</v>
@@ -20052,7 +20179,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B136" s="23" t="s">
         <v>9</v>
@@ -20063,7 +20190,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B137" s="23" t="s">
         <v>9</v>
@@ -20074,7 +20201,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="24" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B138" s="24" t="s">
         <v>146</v>
@@ -20084,52 +20211,52 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="22" t="s">
-        <v>798</v>
-      </c>
-      <c r="B139" s="22" t="s">
+      <c r="A139" s="24" t="s">
+        <v>848</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="24" t="s">
+        <v>847</v>
+      </c>
+      <c r="B140" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="B141" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="22" t="b">
+      <c r="C141" s="22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="B140" s="22" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="B142" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="17" t="s">
-        <v>820</v>
-      </c>
-      <c r="B141" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="B142" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="17" t="b">
+      <c r="C142" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
-        <v>597</v>
+        <v>816</v>
       </c>
       <c r="B143" s="17" t="s">
         <v>8</v>
@@ -20140,7 +20267,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
-        <v>814</v>
+        <v>593</v>
       </c>
       <c r="B144" s="17" t="s">
         <v>8</v>
@@ -20151,10 +20278,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
-        <v>750</v>
+        <v>596</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C145" s="17" t="b">
         <v>0</v>
@@ -20162,10 +20289,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
-        <v>751</v>
+        <v>810</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C146" s="17" t="b">
         <v>0</v>
@@ -20173,7 +20300,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B147" s="17" t="s">
         <v>20</v>
@@ -20184,7 +20311,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B148" s="17" t="s">
         <v>20</v>
@@ -20195,10 +20322,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="C149" s="17" t="b">
         <v>0</v>
@@ -20206,7 +20333,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B150" s="17" t="s">
         <v>20</v>
@@ -20217,10 +20344,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="C151" s="17" t="b">
         <v>0</v>
@@ -20228,7 +20355,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="B152" s="17" t="s">
         <v>20</v>
@@ -20239,10 +20366,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
-        <v>385</v>
+        <v>738</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C153" s="17" t="b">
         <v>0</v>
@@ -20250,10 +20377,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
-        <v>395</v>
+        <v>742</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C154" s="17" t="b">
         <v>0</v>
@@ -20261,10 +20388,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
-        <v>749</v>
+        <v>384</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C155" s="17" t="b">
         <v>0</v>
@@ -20272,10 +20399,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
-        <v>754</v>
+        <v>394</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C156" s="17" t="b">
         <v>0</v>
@@ -20283,40 +20410,40 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C157" s="17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="19" t="s">
-        <v>595</v>
-      </c>
-      <c r="B158" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C158" s="18" t="b">
-        <v>1</v>
+      <c r="A158" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" s="17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="19" t="s">
-        <v>596</v>
-      </c>
-      <c r="B159" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C159" s="18" t="b">
-        <v>1</v>
+      <c r="A159" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" s="17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
-        <v>815</v>
+        <v>594</v>
       </c>
       <c r="B160" s="18" t="s">
         <v>146</v>
@@ -20327,7 +20454,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
-        <v>759</v>
+        <v>595</v>
       </c>
       <c r="B161" s="18" t="s">
         <v>146</v>
@@ -20337,19 +20464,19 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="18" t="s">
-        <v>804</v>
+      <c r="A162" s="19" t="s">
+        <v>811</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="C162" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="18" t="s">
-        <v>760</v>
+      <c r="A163" s="19" t="s">
+        <v>755</v>
       </c>
       <c r="B163" s="18" t="s">
         <v>146</v>
@@ -20359,11 +20486,11 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="19" t="s">
-        <v>761</v>
+      <c r="A164" s="18" t="s">
+        <v>800</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="C164" s="18" t="b">
         <v>1</v>
@@ -20371,7 +20498,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B165" s="18" t="s">
         <v>146</v>
@@ -20381,8 +20508,8 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="18" t="s">
-        <v>805</v>
+      <c r="A166" s="19" t="s">
+        <v>757</v>
       </c>
       <c r="B166" s="18" t="s">
         <v>146</v>
@@ -20393,7 +20520,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
-        <v>396</v>
+        <v>758</v>
       </c>
       <c r="B167" s="18" t="s">
         <v>146</v>
@@ -20404,10 +20531,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="18" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C168" s="18" t="b">
         <v>1</v>
@@ -20415,7 +20542,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="18" t="s">
-        <v>817</v>
+        <v>395</v>
       </c>
       <c r="B169" s="18" t="s">
         <v>146</v>
@@ -20426,12 +20553,34 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
-        <v>763</v>
+        <v>812</v>
       </c>
       <c r="B170" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C170" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="B171" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C170" s="18" t="b">
+      <c r="C171" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="18" t="s">
+        <v>759</v>
+      </c>
+      <c r="B172" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C172" s="18" t="b">
         <v>1</v>
       </c>
     </row>
